--- a/documents/React_FTP_요구사항_명세서.xlsx
+++ b/documents/React_FTP_요구사항_명세서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yskim\Documents\ReactFTP\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\workspace-spring-tool-suite-4-4.10.0.RELEASE\ReactFTP\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E545A4E2-EDE0-486C-917F-C9E6200B2515}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="244">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -145,13 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우측 레이아웃에서 폴더를 우클릭 시 아래의 메뉴를 선택할 수 있다.
- - 폴더 수정 (이름, 권한)
- - 폴더 삭제
- - 폴더 압축하여 다운로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우측 레이아웃에서 파일을 우클릭 시 아래의 메뉴를 선택할 수 있다.
  - 파일 수정 (이름, 권한)
  - 파일 삭제
@@ -215,10 +207,6 @@
   </si>
   <si>
     <t>FTP 최상위 디렉토리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최상위 디렉토리의 경로는 NAS 서버의 &lt; ftp/REACT FTP &gt; 로 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -462,6 +450,553 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>좌측 레이아웃 우클릭 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 내 사용자 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업 화면을 통해 삭제할 회사를 검색 및 선택 후 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업 화면을 통해 추가할 회사의 이름, 설명, 대표번호, 이메일 입력해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 회사의 사용자 조회 및 관리가 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트박스에서 회사 선택 후 텍스트 박스에 (조회 및 관리할) 사용자를 입력해 관리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보는 아이디 또는 이름으로 검색할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인 실패 시, 로그인 실패를 알리는 문구를 출력한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator 계정만 접근할 수 있다.</t>
+  </si>
+  <si>
+    <t>페이지 접근 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator, Manager 계정이 접근할 수 있다.
+Administrator 계정이 접근할 경우 전체 사용자에 대해 관리할 수 있다.
+Manager 계정이 접근할 경우 해당 Manager 가 소속한 회사의 사용자에 대해 관리할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 승인 대기 중인 사용자에게 사용 승인을 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 내 사용자를 추가 및 제거할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일, 연락처, 비밀번호, 주소 정보를 수정할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager, User 계정이 접근할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 레이아웃 우클릭 기능
+- 폴더를 선택한 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 레이아웃 우클릭 기능
+- 파일을 선택한 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 화면에는 FTP 최상위 디렉토리만 표시되며, 폴더를 선택하면 해당 폴더의 하위 폴더 리스트가
+트리 형태로 보여진다.
+Default 선택 값으로 최상위 디렉토리를 기본으로 선택하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성된 일자와 마지막으로 수정된 일자를 관리해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP 파일 및 폴더 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 - 파일 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 - 파일 다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 - 폴더 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더 생성 시, 폴더 이름과 권한을 부여하여 생성한다.
+권한의 default 값은 Class C 로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더 수정 시, 폴더 이름과 권한을 변경한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 - 폴더 수정(권한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 - 폴더 수정(공통)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 - 폴더 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 - 파일 수정(권한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0003</t>
+  </si>
+  <si>
+    <t>RQ-0005</t>
+  </si>
+  <si>
+    <t>RQ-0006</t>
+  </si>
+  <si>
+    <t>RQ-0007</t>
+  </si>
+  <si>
+    <t>RQ-0008</t>
+  </si>
+  <si>
+    <t>RQ-0009</t>
+  </si>
+  <si>
+    <t>RQ-0010</t>
+  </si>
+  <si>
+    <t>RQ-0011</t>
+  </si>
+  <si>
+    <t>RQ-0012</t>
+  </si>
+  <si>
+    <t>RQ-0013</t>
+  </si>
+  <si>
+    <t>RQ-0014</t>
+  </si>
+  <si>
+    <t>RQ-0015</t>
+  </si>
+  <si>
+    <t>RQ-0016</t>
+  </si>
+  <si>
+    <t>RQ-0017</t>
+  </si>
+  <si>
+    <t>RQ-0018</t>
+  </si>
+  <si>
+    <t>RQ-0019</t>
+  </si>
+  <si>
+    <t>RQ-0020</t>
+  </si>
+  <si>
+    <t>RQ-0021</t>
+  </si>
+  <si>
+    <t>RQ-0022</t>
+  </si>
+  <si>
+    <t>RQ-0023</t>
+  </si>
+  <si>
+    <t>RQ-0024</t>
+  </si>
+  <si>
+    <t>RQ-0025</t>
+  </si>
+  <si>
+    <t>RQ-0026</t>
+  </si>
+  <si>
+    <t>RQ-0027</t>
+  </si>
+  <si>
+    <t>RQ-0028</t>
+  </si>
+  <si>
+    <t>RQ-0030</t>
+  </si>
+  <si>
+    <t>RQ-0031</t>
+  </si>
+  <si>
+    <t>RQ-0032</t>
+  </si>
+  <si>
+    <t>RQ-0033</t>
+  </si>
+  <si>
+    <t>RQ-0034</t>
+  </si>
+  <si>
+    <t>RQ-0036</t>
+  </si>
+  <si>
+    <t>RQ-0037</t>
+  </si>
+  <si>
+    <t>RQ-0038</t>
+  </si>
+  <si>
+    <t>RQ-0039</t>
+  </si>
+  <si>
+    <t>RQ-0040</t>
+  </si>
+  <si>
+    <t>RQ-0041</t>
+  </si>
+  <si>
+    <t>RQ-0043</t>
+  </si>
+  <si>
+    <t>RQ-0044</t>
+  </si>
+  <si>
+    <t>RQ-0045</t>
+  </si>
+  <si>
+    <t>RQ-0046</t>
+  </si>
+  <si>
+    <t>RQ-0048</t>
+  </si>
+  <si>
+    <t>RQ-0049</t>
+  </si>
+  <si>
+    <t>RQ-0050</t>
+  </si>
+  <si>
+    <t>RQ-0051</t>
+  </si>
+  <si>
+    <t>RQ-0052</t>
+  </si>
+  <si>
+    <t>RQ-0053</t>
+  </si>
+  <si>
+    <t>RQ-0054</t>
+  </si>
+  <si>
+    <t>RQ-0055</t>
+  </si>
+  <si>
+    <t>RQ-0056</t>
+  </si>
+  <si>
+    <t>RQ-0057</t>
+  </si>
+  <si>
+    <t>RQ-0059</t>
+  </si>
+  <si>
+    <t>RQ-0060</t>
+  </si>
+  <si>
+    <t>Administrator 의 비밀번호는 wpsjwlrhksflwk123 (제너지관리자123) 로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator 은 처음부터 미리 생성한다.
+    - id     : administrator
+    - pw    : 16자 이상
+    - 역할  : administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0010-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0011-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager 회원가입 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager 로 가입 시, 회원가입 폼 상단의 &lt;매니저로 가입&gt; 체크박스를 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0029-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0035-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0042-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0046-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더 삭제 시, 폴더 내 접근 권한이 모자란 파일 및 폴더가 존재하면
+'접근 권한이 없는 항목이 포함되어 삭제할 수 없습니다' 라는 안내 문구 및 
+접근 권한이 없는 컨텐츠 리스트를 안내창으로 띄워준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0054-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보는 아이디로 검색할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0055-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 검색 창을 통해 사용자의 이름 또는 아이디를 조회하여 접근 권한 레벨을 수정할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업 창을 통해 사용자의 아이디를 조회하여 접근 권한 레벨을 수정할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0058-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지로 첫 이동 시, 접근 가능한 전체 데이터를 보여준 후 조건 검색을 통해 데이터를 필터링한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 발급된 임시 비밀번호는 alert으로 사용자에게 알린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0025-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0026-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회한 아이디는 alert으로 사용자에게 알린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측의 폴더 탐색기에서 선택한 폴더 하위의 컨텐츠들이 우측 레이아웃에
+표시되어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단의 내 정보관리를 선택 시, 회원가입 시 입력한 정보를 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 확인 페이지에서 수정하기를 누르면 이용자의 비밀번호를 재확인 후 수정 페이지를 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정입력사항 중 다음 항목은 변경시 중복 확인을 해야 한다.
+    - 이메일, 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정입력사항 중 다음 항목은 재입력을 통한 확인해야 한다.
+    - 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정입력사항 중 다음 항목은 입력 포맷을 확인해야 한다.
+    - 이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정입력사항 입력사항 중 &lt;주소&gt; 항목은 다음과 같이 세분화하여 관리해야 한다.
+    - 기본주소, 상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.2</t>
+  </si>
+  <si>
+    <t>v0.1</t>
+  </si>
+  <si>
+    <t>RQ-0061</t>
+  </si>
+  <si>
+    <t>RQ-0062</t>
+  </si>
+  <si>
+    <t>RQ-0063</t>
+  </si>
+  <si>
+    <t>RQ-0064</t>
+  </si>
+  <si>
+    <t>RQ-0065</t>
+  </si>
+  <si>
+    <t>RQ-0066</t>
+  </si>
+  <si>
+    <t>최상위 디렉토리의 경로는 NAS 서버의 &lt; ftp/2021년 상반기 신입사원 교육/REACT FTP &gt; 로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0003-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상위 디렉토리의 경로는 NAS 서버의 &lt; ftp/REACT FTP &gt; 로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager 은 관리자 계정으로 회원가입 해야한다.
+회원가입 완료 후 Administrator 의 승인이 필요하다. 승인 전까지는 계정 사용이 불가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0038-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 레이아웃에서 선택한 항목 없이 빈 공간을 우클릭하는 기능을 제거하고, 
+파일 업로드 버튼을 우측 레이아웃 우상단에 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 사용자 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 검색 / 사용자 검색 시
+최초 검색된 데이터 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 접근 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>좌측 폴더 탐색기의 트리를 마우스 우클릭하는 경우 아래의 메뉴를 선택할 수 있다.
  - 폴더 생성
  - 폴더 수정(이름 변경)
@@ -469,383 +1004,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>좌측 레이아웃 우클릭 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 내 사용자 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 사용자 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝업 화면을 통해 삭제할 회사를 검색 및 선택 후 삭제한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝업 화면을 통해 추가할 회사의 이름, 설명, 대표번호, 이메일 입력해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 회사의 사용자 조회 및 관리가 가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리스트박스에서 회사 선택 후 텍스트 박스에 (조회 및 관리할) 사용자를 입력해 관리한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보는 아이디 또는 이름으로 검색할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인 실패 시, 로그인 실패를 알리는 문구를 출력한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 정보 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrator 계정만 접근할 수 있다.</t>
-  </si>
-  <si>
-    <t>페이지 접근 권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrator, Manager 계정이 접근할 수 있다.
-Administrator 계정이 접근할 경우 전체 사용자에 대해 관리할 수 있다.
-Manager 계정이 접근할 경우 해당 Manager 가 소속한 회사의 사용자에 대해 관리할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 승인 대기 중인 사용자에게 사용 승인을 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 내 사용자를 추가 및 제거할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일, 연락처, 비밀번호, 주소 정보를 수정할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manager, User 계정이 접근할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 레이아웃 우클릭 기능
-- 폴더를 선택한 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 레이아웃 우클릭 기능
-- 파일을 선택한 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫 화면에는 FTP 최상위 디렉토리만 표시되며, 폴더를 선택하면 해당 폴더의 하위 폴더 리스트가
-트리 형태로 보여진다.
-Default 선택 값으로 최상위 디렉토리를 기본으로 선택하고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성된 일자와 마지막으로 수정된 일자를 관리해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTP 파일 및 폴더 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 - 파일 업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 - 파일 다운로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 - 폴더 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴더 생성 시, 폴더 이름과 권한을 부여하여 생성한다.
-권한의 default 값은 Class C 로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴더 수정 시, 폴더 이름과 권한을 변경한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 - 폴더 수정(권한)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 - 폴더 수정(공통)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 - 폴더 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 - 파일 수정(권한)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0003</t>
-  </si>
-  <si>
-    <t>RQ-0004</t>
-  </si>
-  <si>
-    <t>RQ-0005</t>
-  </si>
-  <si>
-    <t>RQ-0006</t>
-  </si>
-  <si>
-    <t>RQ-0007</t>
-  </si>
-  <si>
-    <t>RQ-0008</t>
-  </si>
-  <si>
-    <t>RQ-0009</t>
-  </si>
-  <si>
-    <t>RQ-0010</t>
-  </si>
-  <si>
-    <t>RQ-0011</t>
-  </si>
-  <si>
-    <t>RQ-0014</t>
-  </si>
-  <si>
-    <t>RQ-0015</t>
-  </si>
-  <si>
-    <t>RQ-0016</t>
-  </si>
-  <si>
-    <t>RQ-0017</t>
-  </si>
-  <si>
-    <t>RQ-0018</t>
-  </si>
-  <si>
-    <t>RQ-0019</t>
-  </si>
-  <si>
-    <t>RQ-0020</t>
-  </si>
-  <si>
-    <t>RQ-0021</t>
-  </si>
-  <si>
-    <t>RQ-0022</t>
-  </si>
-  <si>
-    <t>RQ-0023</t>
-  </si>
-  <si>
-    <t>RQ-0024</t>
-  </si>
-  <si>
-    <t>RQ-0025</t>
-  </si>
-  <si>
-    <t>RQ-0026</t>
-  </si>
-  <si>
-    <t>RQ-0030</t>
-  </si>
-  <si>
-    <t>RQ-0032</t>
-  </si>
-  <si>
-    <t>RQ-0033</t>
-  </si>
-  <si>
-    <t>RQ-0034</t>
-  </si>
-  <si>
-    <t>RQ-0036</t>
-  </si>
-  <si>
-    <t>RQ-0037</t>
-  </si>
-  <si>
-    <t>RQ-0038</t>
-  </si>
-  <si>
-    <t>RQ-0039</t>
-  </si>
-  <si>
-    <t>RQ-0040</t>
-  </si>
-  <si>
-    <t>RQ-0041</t>
-  </si>
-  <si>
-    <t>RQ-0043</t>
-  </si>
-  <si>
-    <t>RQ-0044</t>
-  </si>
-  <si>
-    <t>RQ-0045</t>
-  </si>
-  <si>
-    <t>RQ-0046</t>
-  </si>
-  <si>
-    <t>RQ-0048</t>
-  </si>
-  <si>
-    <t>RQ-0049</t>
-  </si>
-  <si>
-    <t>RQ-0050</t>
-  </si>
-  <si>
-    <t>RQ-0051</t>
-  </si>
-  <si>
-    <t>RQ-0052</t>
-  </si>
-  <si>
-    <t>RQ-0053</t>
-  </si>
-  <si>
-    <t>RQ-0054</t>
-  </si>
-  <si>
-    <t>RQ-0055</t>
-  </si>
-  <si>
-    <t>RQ-0056</t>
-  </si>
-  <si>
-    <t>RQ-0057</t>
-  </si>
-  <si>
-    <t>RQ-0059</t>
-  </si>
-  <si>
-    <t>RQ-0060</t>
-  </si>
-  <si>
-    <t>Administrator 의 비밀번호는 wpsjwlrhksflwk123 (제너지관리자123) 로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrator 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrator 은 처음부터 미리 생성한다.
-    - id     : administrator
-    - pw    : 16자 이상
-    - 역할  : administrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0011-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manager 회원가입 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manager 로 가입 시, 회원가입 폼 상단의 &lt;매니저로 가입&gt; 체크박스를 선택한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manager 은 관리자 계정으로 회원가입 해야한다.
-회원가입 완료 후 Administrator 의 승인이 필요하다. 승인 전까지는 계정 사용이 불가능.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴더 삭제 시, 폴더 내 접근 권한이 모자란 파일 및 폴더가 존재하면
-'접근 권한이 없는 항목이 포함되어 삭제할 수 없습니다' 라는 안내 문구 및 
-접근 권한이 없는 컨텐츠 리스트를 안내창으로 띄워준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보는 아이디로 검색할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 검색 창을 통해 사용자의 이름 또는 아이디를 조회하여 접근 권한 레벨을 수정할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝업 창을 통해 사용자의 아이디를 조회하여 접근 권한 레벨을 수정할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 검색된 데이터 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지로 첫 이동 시, 접근 가능한 전체 데이터를 보여준 후 조건 검색을 통해 데이터를 필터링한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김윤수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김보경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로 발급된 임시 비밀번호는 alert으로 사용자에게 알린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0026-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회한 아이디는 alert으로 사용자에게 알린다.</t>
+    <t>RQ-0037-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측 레이아웃 우클릭 기능
+- 최상위 디렉토리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -853,146 +1017,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>좌측의 폴더 탐색기에서 선택한 폴더 하위의 컨텐츠들이 우측 레이아웃에
-표시되어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단의 내 정보관리를 선택 시, 회원가입 시 입력한 정보를 확인할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 확인 페이지에서 수정하기를 누르면 이용자의 비밀번호를 재확인 후 수정 페이지를 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정입력사항 중 다음 항목은 변경시 중복 확인을 해야 한다.
-    - 이메일, 연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정입력사항 중 다음 항목은 재입력을 통한 확인해야 한다.
-    - 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정입력사항 중 다음 항목은 입력 포맷을 확인해야 한다.
-    - 이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정입력사항 입력사항 중 &lt;주소&gt; 항목은 다음과 같이 세분화하여 관리해야 한다.
-    - 기본주소, 상세주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.2</t>
-  </si>
-  <si>
-    <t>v0.1</t>
-  </si>
-  <si>
-    <t>RQ-0061</t>
-  </si>
-  <si>
-    <t>RQ-0062</t>
-  </si>
-  <si>
-    <t>RQ-0063</t>
-  </si>
-  <si>
-    <t>RQ-0064</t>
-  </si>
-  <si>
-    <t>RQ-0065</t>
-  </si>
-  <si>
-    <t>RQ-0066</t>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에는 두가지 방법이있다. 
-- 로그인창에서 일반 회원가입 
-- Admin 또는 Manager의 사용관리창에서 승인없이 바로 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0012-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0027-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0029</t>
-  </si>
-  <si>
-    <t>RQ-0031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0035</t>
-  </si>
-  <si>
-    <t>RQ-0042</t>
-  </si>
-  <si>
-    <t>RQ-0047</t>
-  </si>
-  <si>
-    <t>RQ-0058</t>
-  </si>
-  <si>
-    <t>RQ-0067</t>
-  </si>
-  <si>
-    <t>RQ-0068</t>
-  </si>
-  <si>
-    <t>RQ-0069</t>
-  </si>
-  <si>
-    <t>RQ-0070</t>
-  </si>
-  <si>
-    <t>회사 내 사용자를 추가 시 회원가입 폼을 동일하게 작성한다
--Manager로 로그인 후 사용자 추가시 매니저의 회사로 승인 없이 사용자가 추가된다.
--Manager로 로그인 후 사용자 추가시 매니저 추가의 경우 Administrator 의 승인이 필요하다.
--Administrator로 로그인 후 사용자 추가시 승인 없이 사용자가 추가된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0071</t>
-  </si>
-  <si>
-    <t>반영</t>
+    <t>v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0037-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측 레이아웃 우클릭 기능
+- 회사 디렉토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 레이아웃에서 폴더를 우클릭 시 아래의 메뉴를 선택할 수 있다.
+ - 폴더 수정 (이름, 권한)
+ - 폴더 삭제
+ - 압축 다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측 폴더 탐색기의 트리의 &lt;최상위 디렉토리&gt;는 마우스 우클릭을 통한 아래의 제어를 금지한다.
+ - 폴더 생성
+ - 폴더 수정(이름 변경)
+ - 폴더 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측 폴더 탐색기의 트리의 &lt;회사 디렉토리&gt;는 마우스 우클릭을 통한 아래의 제어를 금지한다.
+ - 폴더 수정(이름 변경)
+ - 폴더 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1449,27 +1510,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="8" customWidth="1"/>
     <col min="3" max="3" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="80.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" style="13" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="8"/>
-    <col min="9" max="16384" width="8.75" style="10"/>
+    <col min="7" max="7" width="8.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" style="8"/>
+    <col min="9" max="16384" width="8.69921875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1503,26 +1564,26 @@
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="6">
         <v>44306</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1530,7 +1591,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>14</v>
@@ -1539,160 +1600,160 @@
         <v>44306</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="E4" s="6">
         <v>44306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="6">
+        <v>44315</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E6" s="6">
         <v>44306</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="109.2" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" s="6">
         <v>44306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>43</v>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" s="6">
         <v>44306</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>77</v>
@@ -1701,76 +1762,79 @@
         <v>44306</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="6">
         <v>44306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="E11" s="6">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>176</v>
@@ -1779,16 +1843,16 @@
         <v>44306</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>177</v>
       </c>
@@ -1805,518 +1869,518 @@
         <v>44306</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="E14" s="6">
         <v>44306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E15" s="6">
         <v>44306</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E16" s="6">
         <v>44306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="6">
         <v>44306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="6">
         <v>44306</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E19" s="6">
         <v>44306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="6">
         <v>44306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="6">
         <v>44306</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="6">
         <v>44306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="6">
         <v>44306</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="6">
         <v>44306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="6">
         <v>44306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="6">
         <v>44306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27" s="6">
         <v>44306</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="6">
         <v>44306</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="E29" s="6">
         <v>44306</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E30" s="6">
         <v>44307</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="E31" s="6">
         <v>44306</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E32" s="6">
         <v>44307</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>18</v>
@@ -2325,70 +2389,70 @@
         <v>44306</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="D34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>19</v>
@@ -2397,273 +2461,273 @@
         <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E36" s="6">
         <v>44306</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="6">
         <v>44306</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E38" s="6">
         <v>44306</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E39" s="6">
         <v>44306</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E40" s="6">
         <v>44306</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E41" s="6">
         <v>44306</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E42" s="6">
         <v>44306</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>234</v>
       </c>
       <c r="E43" s="6">
         <v>44306</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="E44" s="6">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="E45" s="6">
-        <v>44306</v>
+        <v>44318</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E46" s="6">
         <v>44306</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>13</v>
@@ -2672,206 +2736,206 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>117</v>
+      <c r="C47" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="E47" s="6">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>118</v>
+      <c r="C48" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="E48" s="6">
         <v>44306</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>120</v>
+      <c r="C49" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E49" s="6">
         <v>44306</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>121</v>
+      <c r="C50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E50" s="6">
         <v>44306</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>32</v>
+      <c r="C51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E51" s="6">
         <v>44306</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>33</v>
+        <v>115</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="E52" s="6">
         <v>44306</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>181</v>
+        <v>119</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="E53" s="6">
         <v>44306</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>34</v>
+      <c r="C54" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="E54" s="6">
         <v>44306</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>13</v>
@@ -2880,600 +2944,633 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A56" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C61" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="E72" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E64" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E65" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="C73" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="E73" s="6">
+        <v>44307</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E67" s="6">
-        <v>44307</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="E74" s="6">
+        <v>44308</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A75" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E68" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="E75" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E69" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="E76" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A77" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="E77" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A78" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" s="6">
-        <v>44307</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E72" s="6">
-        <v>44308</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E73" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E74" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E75" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E76" s="6">
-        <v>44306</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E78" s="6">
+        <v>44306</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="6"/>
@@ -3481,68 +3578,70 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E81" s="6"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" s="5"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E82" s="6"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="C93" s="12"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -3551,55 +3650,72 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="5"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
+      <c r="C95" s="12"/>
       <c r="E95" s="6"/>
       <c r="F95" s="7"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" s="6"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="5"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" s="6"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" s="5"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99" s="5"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
     </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documents/React_FTP_요구사항_명세서.xlsx
+++ b/documents/React_FTP_요구사항_명세서.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="250">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -1047,6 +1047,30 @@
     <t>좌측 폴더 탐색기의 트리의 &lt;회사 디렉토리&gt;는 마우스 우클릭을 통한 아래의 제어를 금지한다.
  - 폴더 수정(이름 변경)
  - 폴더 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0038-1 로 대체 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0054-1 로 대체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0003-1 로 대체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0055-1 로 대체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전 업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1513,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1527,7 +1551,8 @@
     <col min="6" max="6" width="12.5" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.19921875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.69921875" style="8"/>
-    <col min="9" max="16384" width="8.69921875" style="10"/>
+    <col min="9" max="9" width="20.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -1555,6 +1580,9 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -1635,7 +1663,9 @@
       <c r="H4" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
@@ -1662,7 +1692,9 @@
       <c r="H5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
@@ -1877,6 +1909,9 @@
       <c r="H13" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="I13" s="8" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
@@ -1929,6 +1964,9 @@
       <c r="H15" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="I15" s="8" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
@@ -1956,7 +1994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>131</v>
       </c>
@@ -1982,7 +2020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>132</v>
       </c>
@@ -2008,7 +2046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>133</v>
       </c>
@@ -2034,7 +2072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>134</v>
       </c>
@@ -2060,7 +2098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>135</v>
       </c>
@@ -2086,7 +2124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>136</v>
       </c>
@@ -2112,7 +2150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>137</v>
       </c>
@@ -2138,7 +2176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>138</v>
       </c>
@@ -2164,7 +2202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>139</v>
       </c>
@@ -2190,7 +2228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>140</v>
       </c>
@@ -2216,7 +2254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>141</v>
       </c>
@@ -2242,7 +2280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>142</v>
       </c>
@@ -2268,7 +2306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>143</v>
       </c>
@@ -2294,7 +2332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>199</v>
       </c>
@@ -2319,8 +2357,11 @@
       <c r="H30" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="I30" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>144</v>
       </c>
@@ -2346,7 +2387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>200</v>
       </c>
@@ -2371,8 +2412,11 @@
       <c r="H32" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I32" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>145</v>
       </c>
@@ -2398,7 +2442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>146</v>
       </c>
@@ -2424,7 +2468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>181</v>
       </c>
@@ -2449,8 +2493,11 @@
       <c r="H35" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="I35" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>147</v>
       </c>
@@ -2476,7 +2523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>148</v>
       </c>
@@ -2502,7 +2549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>149</v>
       </c>
@@ -2528,7 +2575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>150</v>
       </c>
@@ -2554,7 +2601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>151</v>
       </c>
@@ -2580,7 +2627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>182</v>
       </c>
@@ -2605,8 +2652,11 @@
       <c r="H41" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="I41" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>152</v>
       </c>
@@ -2632,7 +2682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>153</v>
       </c>
@@ -2658,7 +2708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>235</v>
       </c>
@@ -2683,8 +2733,11 @@
       <c r="H44" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="I44" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>239</v>
       </c>
@@ -2709,8 +2762,11 @@
       <c r="H45" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="I45" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>154</v>
       </c>
@@ -2735,8 +2791,11 @@
       <c r="H46" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="I46" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>227</v>
       </c>
@@ -2761,8 +2820,11 @@
       <c r="H47" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="I47" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>155</v>
       </c>
@@ -2788,7 +2850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>156</v>
       </c>
@@ -2814,7 +2876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>157</v>
       </c>
@@ -2840,7 +2902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>183</v>
       </c>
@@ -2866,7 +2928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>158</v>
       </c>
@@ -2892,7 +2954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>159</v>
       </c>
@@ -2918,7 +2980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
         <v>160</v>
       </c>
@@ -2938,13 +3000,13 @@
         <v>196</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>161</v>
       </c>
@@ -2970,7 +3032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>184</v>
       </c>
@@ -2995,8 +3057,11 @@
       <c r="H56" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I56" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
         <v>186</v>
       </c>
@@ -3016,13 +3081,13 @@
         <v>196</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>162</v>
       </c>
@@ -3048,7 +3113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
         <v>163</v>
       </c>
@@ -3074,7 +3139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>164</v>
       </c>
@@ -3100,7 +3165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>165</v>
       </c>
@@ -3126,7 +3191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>166</v>
       </c>
@@ -3152,7 +3217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
         <v>167</v>
       </c>
@@ -3178,7 +3243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>168</v>
       </c>
@@ -3203,8 +3268,11 @@
       <c r="H64" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I64" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
         <v>187</v>
       </c>
@@ -3229,8 +3297,11 @@
       <c r="H65" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I65" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
         <v>169</v>
       </c>
@@ -3255,8 +3326,11 @@
       <c r="H66" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I66" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
         <v>189</v>
       </c>
@@ -3282,7 +3356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
         <v>170</v>
       </c>
@@ -3308,7 +3382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
         <v>171</v>
       </c>
@@ -3334,7 +3408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
         <v>192</v>
       </c>
@@ -3359,8 +3433,11 @@
       <c r="H70" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I70" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>172</v>
       </c>
@@ -3386,7 +3463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>173</v>
       </c>
@@ -3412,7 +3489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>212</v>
       </c>
@@ -3437,8 +3514,11 @@
       <c r="H73" s="5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I73" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
         <v>213</v>
       </c>
@@ -3463,8 +3543,11 @@
       <c r="H74" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="I74" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
         <v>214</v>
       </c>
@@ -3490,7 +3573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
         <v>215</v>
       </c>
@@ -3516,7 +3599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
         <v>216</v>
       </c>
@@ -3542,7 +3625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
         <v>217</v>
       </c>
@@ -3568,7 +3651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="10"/>
